--- a/test-plan/Test plan.xlsx
+++ b/test-plan/Test plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanelamesic/magento-testautomation-framework/test-plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66211BD-0AA1-AC4C-872D-CD474DB107AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80627619-E62E-6646-BB0E-3E8311A0B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{BF2A5069-A26B-6E47-9505-AA233A1884BE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="225">
   <si>
     <t>Regression</t>
   </si>
@@ -983,9 +983,6 @@
     <t>T11</t>
   </si>
   <si>
-    <t>as expected</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -1023,12 +1020,37 @@
   <si>
     <t>Test fails in steps 8</t>
   </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Verify item can be removed from the cart</t>
+  </si>
+  <si>
+    <t>Verify item quantity can be updated in cart</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>16. Click on Trash icon in the lower right corner</t>
+  </si>
+  <si>
+    <t>16. User got a message after successful cleaning:  "You have no items in your shopping cart.
+Click here to continue shopping."</t>
+  </si>
+  <si>
+    <t>16. Navigate to qty input form and input new qty number, e.g. 3</t>
+  </si>
+  <si>
+    <t>16. Verify that price is now 3 times larger than it was when initialy qty was 1.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1081,6 +1103,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1477,7 +1511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1662,6 +1696,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1740,17 +1780,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2182,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4379D5B-9C23-144C-9E1D-D94793403BC9}">
   <dimension ref="A3:K71"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E46"/>
+    <sheetView topLeftCell="C17" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2207,14 +2247,14 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="86" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2222,14 +2262,14 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="87" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2237,50 +2277,50 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="85" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="88" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="80" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:11" s="82" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="81" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3320,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64170EA0-41B4-5B4C-ABCC-1D60A70D56AD}">
-  <dimension ref="A2:K90"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,14 +3384,14 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="86" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3359,14 +3399,14 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="87" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3374,67 +3414,67 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="85" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="88" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="74" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:11" s="76" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="99" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="98">
+      <c r="A9" s="100">
         <v>1</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F9" s="70" t="s">
@@ -3443,204 +3483,204 @@
       <c r="G9" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="94" t="s">
         <v>117</v>
       </c>
       <c r="I9" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="101" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="92"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="92"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="99"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="92"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="70" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="92"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="92"/>
-      <c r="K11" s="99"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="101"/>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="94"/>
       <c r="I12" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="92"/>
-      <c r="K12" s="99"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="101"/>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="92"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="70" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="94"/>
       <c r="I13" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="99"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="101"/>
     </row>
     <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="92"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="70" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="92"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="99"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="101"/>
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="92"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="70" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="92"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="99"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="101"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="92"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="70" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="92"/>
+      <c r="H16" s="94"/>
       <c r="I16" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="92"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="101"/>
     </row>
     <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="92"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="70" t="s">
         <v>113</v>
       </c>
       <c r="G17" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="92"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="99"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="92"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="70" t="s">
         <v>115</v>
       </c>
       <c r="G18" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="92"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="92"/>
-      <c r="K18" s="99"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="101"/>
     </row>
     <row r="19" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98">
+      <c r="A19" s="100">
         <v>2</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F19" s="70" t="s">
@@ -3649,261 +3689,261 @@
       <c r="G19" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="94" t="s">
         <v>141</v>
       </c>
       <c r="I19" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="92" t="s">
+      <c r="J19" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="99" t="s">
+      <c r="K19" s="101" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="92"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="92"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="92"/>
-      <c r="K20" s="99"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="101"/>
     </row>
     <row r="21" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="92"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="70" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="92"/>
+      <c r="H21" s="94"/>
       <c r="I21" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="92"/>
-      <c r="K21" s="99"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="101"/>
     </row>
     <row r="22" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="92"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="92"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="92"/>
-      <c r="K22" s="99"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="101"/>
     </row>
     <row r="23" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="92"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="70" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="92"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="92"/>
-      <c r="K23" s="99"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="101"/>
     </row>
     <row r="24" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="92"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="70" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="92"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="92"/>
-      <c r="K24" s="99"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="101"/>
     </row>
     <row r="25" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="92"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="70" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="92"/>
+      <c r="H25" s="94"/>
       <c r="I25" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="92"/>
-      <c r="K25" s="99"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="101"/>
     </row>
     <row r="26" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="70" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="92"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="92"/>
-      <c r="K26" s="99"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="101"/>
     </row>
     <row r="27" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="98"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="92"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="70" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="92"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="92"/>
-      <c r="K27" s="99"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="101"/>
     </row>
     <row r="28" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="98"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="92"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="70" t="s">
         <v>115</v>
       </c>
       <c r="G28" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="92"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="92"/>
-      <c r="K28" s="99"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="101"/>
     </row>
     <row r="29" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="98"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="92"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="70" t="s">
         <v>135</v>
       </c>
       <c r="G29" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="92"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="92"/>
-      <c r="K29" s="99"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="101"/>
     </row>
     <row r="30" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="98"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="92"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="70" t="s">
         <v>137</v>
       </c>
       <c r="G30" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="92"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="92"/>
-      <c r="K30" s="99"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="101"/>
     </row>
     <row r="31" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="98"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="92"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="70" t="s">
         <v>139</v>
       </c>
       <c r="G31" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="92"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="92"/>
-      <c r="K31" s="99"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="101"/>
     </row>
     <row r="32" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="98">
+      <c r="A32" s="100">
         <v>3</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="92" t="s">
+      <c r="E32" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F32" s="70" t="s">
@@ -3912,183 +3952,183 @@
       <c r="G32" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="92" t="s">
+      <c r="H32" s="94" t="s">
         <v>129</v>
       </c>
       <c r="I32" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="92" t="s">
+      <c r="J32" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="99" t="s">
+      <c r="K32" s="101" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="98"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="92"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="92"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="92"/>
-      <c r="K33" s="99"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="101"/>
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="92"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="70" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="92"/>
+      <c r="H34" s="94"/>
       <c r="I34" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="99"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="101"/>
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="98"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="92"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="94"/>
       <c r="F35" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="92"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="92"/>
-      <c r="K35" s="99"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="101"/>
     </row>
     <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="98"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="92"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="94"/>
       <c r="F36" s="70" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="92"/>
+      <c r="H36" s="94"/>
       <c r="I36" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="92"/>
-      <c r="K36" s="99"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="101"/>
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="92"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="70" t="s">
         <v>48</v>
       </c>
       <c r="G37" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="92"/>
+      <c r="H37" s="94"/>
       <c r="I37" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="92"/>
-      <c r="K37" s="99"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="101"/>
     </row>
     <row r="38" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="92"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="94"/>
       <c r="F38" s="70" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="92"/>
+      <c r="H38" s="94"/>
       <c r="I38" s="70"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="99"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="101"/>
     </row>
     <row r="39" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="98"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="92"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="94"/>
       <c r="F39" s="70" t="s">
         <v>125</v>
       </c>
       <c r="G39" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="92"/>
+      <c r="H39" s="94"/>
       <c r="I39" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="92"/>
-      <c r="K39" s="99"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="101"/>
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="98"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="92"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="94"/>
       <c r="F40" s="70" t="s">
         <v>127</v>
       </c>
       <c r="G40" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="92"/>
-      <c r="I40" s="94" t="s">
+      <c r="H40" s="94"/>
+      <c r="I40" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="92"/>
-      <c r="K40" s="99"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="101"/>
     </row>
     <row r="41" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98">
+      <c r="A41" s="100">
         <v>4</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="92" t="s">
+      <c r="E41" s="94" t="s">
         <v>131</v>
       </c>
       <c r="F41" s="70" t="s">
@@ -4097,113 +4137,113 @@
       <c r="G41" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="94" t="s">
         <v>133</v>
       </c>
       <c r="I41" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="92" t="s">
+      <c r="J41" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="99" t="s">
+      <c r="K41" s="101" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="98"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="92"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="94"/>
       <c r="F42" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G42" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="92"/>
+      <c r="H42" s="94"/>
       <c r="I42" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="92"/>
-      <c r="K42" s="99"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="101"/>
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="98"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="92"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="70" t="s">
         <v>43</v>
       </c>
       <c r="G43" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="92"/>
+      <c r="H43" s="94"/>
       <c r="I43" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="92"/>
-      <c r="K43" s="99"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="101"/>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="98"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="92"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="94"/>
       <c r="F44" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G44" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="92"/>
+      <c r="H44" s="94"/>
       <c r="I44" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="92"/>
-      <c r="K44" s="99"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="101"/>
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="98"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="92"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="94"/>
       <c r="F45" s="70" t="s">
         <v>44</v>
       </c>
       <c r="G45" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H45" s="92"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="92"/>
-      <c r="K45" s="99"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="101"/>
     </row>
     <row r="46" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="98"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="92"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="94"/>
       <c r="F46" s="70" t="s">
         <v>132</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="H46" s="92"/>
-      <c r="I46" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="92"/>
-      <c r="K46" s="99"/>
+        <v>209</v>
+      </c>
+      <c r="H46" s="94"/>
+      <c r="I46" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="94"/>
+      <c r="K46" s="101"/>
     </row>
     <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
@@ -4643,7 +4683,7 @@
       <c r="C67" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="89" t="s">
         <v>195</v>
       </c>
       <c r="E67" s="39" t="s">
@@ -4672,7 +4712,7 @@
       <c r="A68" s="72"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
-      <c r="D68" s="87"/>
+      <c r="D68" s="89"/>
       <c r="E68" s="39"/>
       <c r="F68" s="70" t="s">
         <v>43</v>
@@ -4691,7 +4731,7 @@
       <c r="A69" s="72"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
-      <c r="D69" s="87"/>
+      <c r="D69" s="89"/>
       <c r="E69" s="39"/>
       <c r="F69" s="70" t="s">
         <v>42</v>
@@ -4710,7 +4750,7 @@
       <c r="A70" s="72"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
-      <c r="D70" s="87"/>
+      <c r="D70" s="89"/>
       <c r="E70" s="39"/>
       <c r="F70" s="70" t="s">
         <v>44</v>
@@ -4729,7 +4769,7 @@
       <c r="A71" s="72"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
-      <c r="D71" s="87"/>
+      <c r="D71" s="89"/>
       <c r="E71" s="39"/>
       <c r="F71" s="70" t="s">
         <v>191</v>
@@ -4748,7 +4788,7 @@
       <c r="A72" s="72"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
-      <c r="D72" s="87"/>
+      <c r="D72" s="89"/>
       <c r="E72" s="39"/>
       <c r="F72" s="41" t="s">
         <v>193</v>
@@ -4903,7 +4943,7 @@
       <c r="C79" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="68" t="s">
         <v>200</v>
       </c>
       <c r="E79" s="39" t="s">
@@ -4922,7 +4962,7 @@
         <v>26</v>
       </c>
       <c r="J79" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K79" s="73" t="s">
         <v>0</v>
@@ -4932,7 +4972,7 @@
       <c r="A80" s="72"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="39"/>
       <c r="F80" s="70" t="s">
         <v>43</v>
@@ -4951,7 +4991,7 @@
       <c r="A81" s="72"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="39"/>
       <c r="F81" s="70" t="s">
         <v>42</v>
@@ -4970,7 +5010,7 @@
       <c r="A82" s="72"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="39"/>
       <c r="F82" s="70" t="s">
         <v>44</v>
@@ -4989,7 +5029,7 @@
       <c r="A83" s="72"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="68"/>
       <c r="E83" s="39"/>
       <c r="F83" s="70" t="s">
         <v>202</v>
@@ -5008,7 +5048,7 @@
       <c r="A84" s="72"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="68"/>
       <c r="E84" s="39"/>
       <c r="F84" s="41" t="s">
         <v>193</v>
@@ -5024,16 +5064,16 @@
       <c r="K84" s="73"/>
     </row>
     <row r="85" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="102">
+      <c r="A85" s="104">
         <v>11</v>
       </c>
-      <c r="B85" s="101" t="s">
+      <c r="B85" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="101" t="s">
+      <c r="C85" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="68" t="s">
         <v>203</v>
       </c>
       <c r="E85" s="39" t="s">
@@ -5045,24 +5085,24 @@
       <c r="G85" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H85" s="101" t="s">
-        <v>207</v>
+      <c r="H85" s="103" t="s">
+        <v>187</v>
       </c>
       <c r="I85" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="101" t="s">
+      <c r="J85" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="K85" s="103" t="s">
+      <c r="K85" s="105" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="102"/>
-      <c r="B86" s="101"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="39"/>
+      <c r="A86" s="104"/>
+      <c r="B86" s="103"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="68"/>
       <c r="E86" s="39"/>
       <c r="F86" s="70" t="s">
         <v>43</v>
@@ -5070,18 +5110,18 @@
       <c r="G86" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="101"/>
+      <c r="H86" s="103"/>
       <c r="I86" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J86" s="101"/>
-      <c r="K86" s="103"/>
+      <c r="J86" s="103"/>
+      <c r="K86" s="105"/>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="102"/>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="39"/>
+      <c r="A87" s="104"/>
+      <c r="B87" s="103"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="68"/>
       <c r="E87" s="39"/>
       <c r="F87" s="70" t="s">
         <v>42</v>
@@ -5089,18 +5129,18 @@
       <c r="G87" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H87" s="101"/>
+      <c r="H87" s="103"/>
       <c r="I87" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J87" s="101"/>
-      <c r="K87" s="103"/>
+      <c r="J87" s="103"/>
+      <c r="K87" s="105"/>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="102"/>
-      <c r="B88" s="101"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="39"/>
+      <c r="A88" s="104"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="68"/>
       <c r="E88" s="39"/>
       <c r="F88" s="70" t="s">
         <v>44</v>
@@ -5108,18 +5148,18 @@
       <c r="G88" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H88" s="101"/>
+      <c r="H88" s="103"/>
       <c r="I88" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J88" s="101"/>
-      <c r="K88" s="103"/>
+      <c r="J88" s="103"/>
+      <c r="K88" s="105"/>
     </row>
     <row r="89" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="102"/>
-      <c r="B89" s="101"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="39"/>
+      <c r="A89" s="104"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="103"/>
+      <c r="D89" s="68"/>
       <c r="E89" s="39"/>
       <c r="F89" s="70" t="s">
         <v>202</v>
@@ -5127,38 +5167,693 @@
       <c r="G89" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="H89" s="101"/>
+      <c r="H89" s="103"/>
       <c r="I89" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J89" s="101"/>
-      <c r="K89" s="103"/>
-    </row>
-    <row r="90" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="103"/>
+      <c r="K89" s="105"/>
+    </row>
+    <row r="90" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="104"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="43" t="s">
+      <c r="B90" s="103"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="G90" s="43" t="s">
+      <c r="G90" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="H90" s="105"/>
-      <c r="I90" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="J90" s="105"/>
-      <c r="K90" s="106"/>
+      <c r="H90" s="103"/>
+      <c r="I90" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="103"/>
+      <c r="K90" s="105"/>
+    </row>
+    <row r="91" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="72">
+        <v>12</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="I91" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="K91" s="107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="72"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="103"/>
+      <c r="I92" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="103"/>
+      <c r="K92" s="107"/>
+    </row>
+    <row r="93" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="72"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="103"/>
+      <c r="I93" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="103"/>
+      <c r="K93" s="107"/>
+    </row>
+    <row r="94" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="72"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="103"/>
+      <c r="I94" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="103"/>
+      <c r="K94" s="107"/>
+    </row>
+    <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="72"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="109"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" s="103"/>
+      <c r="I95" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="103"/>
+      <c r="K95" s="107"/>
+    </row>
+    <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="72"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="109"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H96" s="103"/>
+      <c r="I96" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="103"/>
+      <c r="K96" s="107"/>
+    </row>
+    <row r="97" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A97" s="72"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="109"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="103"/>
+      <c r="I97" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="103"/>
+      <c r="K97" s="107"/>
+    </row>
+    <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="72"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="109"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="103"/>
+      <c r="I98" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="103"/>
+      <c r="K98" s="107"/>
+    </row>
+    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="72"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="109"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G99" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H99" s="103"/>
+      <c r="I99" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="103"/>
+      <c r="K99" s="107"/>
+    </row>
+    <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="72"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" s="103"/>
+      <c r="I100" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="103"/>
+      <c r="K100" s="107"/>
+    </row>
+    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="72"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" s="103"/>
+      <c r="I101" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" s="103"/>
+      <c r="K101" s="107"/>
+    </row>
+    <row r="102" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="72"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="109"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H102" s="103"/>
+      <c r="I102" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" s="103"/>
+      <c r="K102" s="107"/>
+    </row>
+    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="72"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H103" s="103"/>
+      <c r="I103" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" s="103"/>
+      <c r="K103" s="107"/>
+    </row>
+    <row r="104" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="72"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H104" s="103"/>
+      <c r="I104" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="103"/>
+      <c r="K104" s="107"/>
+    </row>
+    <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="72"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" s="103"/>
+      <c r="I105" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="103"/>
+      <c r="K105" s="107"/>
+    </row>
+    <row r="106" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="72"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="109"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H106" s="103"/>
+      <c r="I106" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" s="103"/>
+      <c r="K106" s="107"/>
+    </row>
+    <row r="107" spans="1:11" s="40" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="72">
+        <v>13</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="I107" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="72"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="39"/>
+      <c r="K108" s="73"/>
+    </row>
+    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="72"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="71"/>
+      <c r="I109" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="39"/>
+      <c r="K109" s="73"/>
+    </row>
+    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="72"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="39"/>
+      <c r="K110" s="73"/>
+    </row>
+    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="72"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" s="71"/>
+      <c r="I111" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="39"/>
+      <c r="K111" s="73"/>
+    </row>
+    <row r="112" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="72"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="39"/>
+      <c r="K112" s="73"/>
+    </row>
+    <row r="113" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="72"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="39"/>
+      <c r="K113" s="73"/>
+    </row>
+    <row r="114" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="72"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" s="39"/>
+      <c r="K114" s="73"/>
+    </row>
+    <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="72"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="39"/>
+      <c r="K115" s="73"/>
+    </row>
+    <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="72"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="39"/>
+      <c r="K116" s="73"/>
+    </row>
+    <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="72"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G117" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" s="39"/>
+      <c r="K117" s="73"/>
+    </row>
+    <row r="118" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="72"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" s="39"/>
+      <c r="K118" s="73"/>
+    </row>
+    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="72"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G119" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" s="39"/>
+      <c r="K119" s="73"/>
+    </row>
+    <row r="120" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="72"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G120" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" s="39"/>
+      <c r="K120" s="73"/>
+    </row>
+    <row r="121" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="72"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" s="39"/>
+      <c r="K121" s="73"/>
+    </row>
+    <row r="122" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="74"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="G122" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="H122" s="102"/>
+      <c r="I122" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="52"/>
+      <c r="K122" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="103">
+    <mergeCell ref="J107:J122"/>
+    <mergeCell ref="K107:K122"/>
+    <mergeCell ref="E107:E122"/>
+    <mergeCell ref="D107:D122"/>
+    <mergeCell ref="C107:C122"/>
+    <mergeCell ref="B107:B122"/>
+    <mergeCell ref="A107:A122"/>
+    <mergeCell ref="C91:C106"/>
+    <mergeCell ref="B91:B106"/>
+    <mergeCell ref="A91:A106"/>
+    <mergeCell ref="H91:H106"/>
+    <mergeCell ref="J91:J106"/>
+    <mergeCell ref="K91:K106"/>
     <mergeCell ref="H85:H90"/>
     <mergeCell ref="J85:J90"/>
     <mergeCell ref="K79:K84"/>
     <mergeCell ref="K85:K90"/>
+    <mergeCell ref="E91:E106"/>
+    <mergeCell ref="D91:D106"/>
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="C79:C84"/>
     <mergeCell ref="B79:B84"/>
@@ -5276,7 +5971,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="90" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -5287,7 +5982,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="88"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="12" t="s">
         <v>155</v>
       </c>
@@ -5296,7 +5991,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="12" t="s">
         <v>156</v>
       </c>
@@ -5305,7 +6000,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="88"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="12" t="s">
         <v>157</v>
       </c>
@@ -5314,7 +6009,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="90" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -5325,25 +6020,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="91" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="88"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="90" t="s">
-        <v>213</v>
+      <c r="C12" s="92" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="90" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -5354,7 +6049,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="88"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="12" t="s">
         <v>164</v>
       </c>
@@ -5363,18 +6058,18 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="93" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="88"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="12" t="s">
         <v>1</v>
       </c>
@@ -5383,7 +6078,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="12" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +6087,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="90" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -5403,7 +6098,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="88"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="12" t="s">
         <v>170</v>
       </c>
@@ -5412,7 +6107,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="88"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -5444,27 +6139,27 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="90" t="s">
         <v>152</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="88"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="12" t="s">
         <v>155</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="12" t="s">
         <v>156</v>
       </c>
@@ -5473,7 +6168,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="12" t="s">
         <v>157</v>
       </c>
@@ -5482,36 +6177,36 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="90" t="s">
         <v>158</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="88"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="89" t="s">
+      <c r="C53" s="91" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="90" t="s">
-        <v>213</v>
+      <c r="C54" s="92" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="90" t="s">
         <v>162</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -5522,7 +6217,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="12" t="s">
         <v>164</v>
       </c>
@@ -5531,36 +6226,36 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="90" t="s">
         <v>166</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="91" t="s">
-        <v>214</v>
+      <c r="C57" s="93" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="88"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="90" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -5571,7 +6266,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="12" t="s">
         <v>170</v>
       </c>
@@ -5580,7 +6275,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="88"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="12" t="s">
         <v>22</v>
       </c>
@@ -5596,7 +6291,7 @@
         <v>171</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/test-plan/Test plan.xlsx
+++ b/test-plan/Test plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanelamesic/magento-testautomation-framework/test-plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80627619-E62E-6646-BB0E-3E8311A0B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81146E32-4E70-9644-9E76-5CF929302C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{BF2A5069-A26B-6E47-9505-AA233A1884BE}"/>
   </bookViews>
@@ -1043,7 +1043,7 @@
     <t>16. Navigate to qty input form and input new qty number, e.g. 3</t>
   </si>
   <si>
-    <t>16. Verify that price is now 3 times larger than it was when initialy qty was 1.</t>
+    <t>16. Verify that price is now 3 times larger than it was when initialy qty was 1 and count is increased</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1528,6 +1528,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2222,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4379D5B-9C23-144C-9E1D-D94793403BC9}">
   <dimension ref="A3:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G28"/>
+    <sheetView zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2231,10 +2234,10 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" style="27" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="6" width="77" style="26" customWidth="1"/>
-    <col min="7" max="7" width="80.33203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="77" style="27" customWidth="1"/>
+    <col min="7" max="7" width="80.33203125" style="41" customWidth="1"/>
     <col min="8" max="8" width="53.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
@@ -2247,14 +2250,14 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="87" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2262,14 +2265,14 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="88" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2277,1047 +2280,1047 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="89" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="82" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+    <row r="8" spans="1:11" s="83" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="82" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
+      <c r="A9" s="45">
         <v>1</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="47" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="28" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="49"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="28" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="49"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="28" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="49"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="31" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>2</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="25" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="28" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="56"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="28" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="56"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="57"/>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="28" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="56"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="28" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="56"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="30" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="56"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="28" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="56"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="28" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="56"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="57"/>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="28" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="56"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="28" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="56"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="28" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="56"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="28" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="56"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="57"/>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="28" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="56"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="57"/>
     </row>
     <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="28" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="56"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="28" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="56"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="28" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="56"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="28" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="56"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="28" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="56"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="57"/>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="28" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="56"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="57"/>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="28" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="56"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="57"/>
     </row>
     <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="41" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="56"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="57"/>
     </row>
     <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="28" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="56"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="57"/>
     </row>
     <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="28" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="56"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="28" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="56"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="17"/>
+      <c r="K37" s="57"/>
     </row>
     <row r="38" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="29" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="56"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="57"/>
     </row>
     <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="44">
+      <c r="A39" s="45">
         <v>3</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="47" t="s">
+      <c r="G39" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="23" t="s">
+      <c r="I39" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="62" t="s">
+      <c r="K39" s="63" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="28" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="63"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="17"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="28" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="63"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="28" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="63"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="17"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="28" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="63"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="28" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="63"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="28" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="63"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="64"/>
     </row>
     <row r="46" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="31" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="57"/>
+      <c r="H46" s="58"/>
       <c r="I46" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="64"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="60"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="60"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="60"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="60"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="60"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="60"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="61"/>
     </row>
     <row r="53" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="60"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="60"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="61"/>
     </row>
     <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="60"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="60"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="61"/>
     </row>
     <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="60"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="61"/>
     </row>
     <row r="58" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="60"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="61"/>
     </row>
     <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="60"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="61"/>
     </row>
     <row r="60" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="60"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="61"/>
     </row>
     <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="60"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="61"/>
     </row>
     <row r="62" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="60"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="61"/>
     </row>
     <row r="63" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="60"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="60"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="61"/>
     </row>
     <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="60"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="61"/>
     </row>
     <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="60"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="61"/>
     </row>
     <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="60"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="61"/>
     </row>
     <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="60"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="61"/>
     </row>
     <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="60"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="61"/>
     </row>
     <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="60"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="61"/>
     </row>
     <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="60"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -3362,21 +3365,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64170EA0-41B4-5B4C-ABCC-1D60A70D56AD}">
   <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107:D122"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="58"/>
-    <col min="2" max="2" width="14.5" style="58" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="57" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="58" customWidth="1"/>
-    <col min="6" max="6" width="56.5" style="58" customWidth="1"/>
-    <col min="7" max="7" width="76.1640625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="49.6640625" style="58" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="58"/>
+    <col min="1" max="1" width="10.83203125" style="59"/>
+    <col min="2" max="2" width="14.5" style="59" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="57" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="59" customWidth="1"/>
+    <col min="6" max="6" width="56.5" style="59" customWidth="1"/>
+    <col min="7" max="7" width="76.1640625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" style="59" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="59"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3384,14 +3387,14 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="84" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="87" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3399,14 +3402,14 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="88" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3414,2429 +3417,2430 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="86" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="89" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="76" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+    <row r="8" spans="1:11" s="77" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="100">
+      <c r="A9" s="101">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="94" t="s">
+      <c r="I9" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="102" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="100"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="70" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="101"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="95"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="70" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="101"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="95"/>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="100"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="70" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="101"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="100"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="70" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="101"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="95"/>
+      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="100"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="70" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="101"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="95"/>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="70" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="101"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="95"/>
+      <c r="K15" s="102"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="70" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="101"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="95"/>
+      <c r="K16" s="102"/>
     </row>
     <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="100"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="70" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="94"/>
-      <c r="I17" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="101"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="95"/>
+      <c r="K17" s="102"/>
     </row>
     <row r="18" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="100"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="70" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="94"/>
-      <c r="I18" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="101"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="95"/>
+      <c r="K18" s="102"/>
     </row>
     <row r="19" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="100">
+      <c r="A19" s="101">
         <v>2</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="94" t="s">
+      <c r="E19" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="94" t="s">
+      <c r="H19" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="94" t="s">
+      <c r="I19" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="102" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="70" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="101"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="95"/>
+      <c r="K20" s="102"/>
     </row>
     <row r="21" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="70" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="70" t="s">
+      <c r="G21" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="94"/>
-      <c r="I21" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="94"/>
-      <c r="K21" s="101"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="95"/>
+      <c r="K21" s="102"/>
     </row>
     <row r="22" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="100"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="70" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="94"/>
-      <c r="I22" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="101"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="95"/>
+      <c r="K22" s="102"/>
     </row>
     <row r="23" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="100"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="70" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="94"/>
-      <c r="I23" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="101"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="95"/>
+      <c r="K23" s="102"/>
     </row>
     <row r="24" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="100"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="70" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="94"/>
-      <c r="I24" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="101"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="95"/>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="100"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="70" t="s">
+      <c r="A25" s="101"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="94"/>
-      <c r="I25" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="101"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="95"/>
+      <c r="K25" s="102"/>
     </row>
     <row r="26" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="100"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="70" t="s">
+      <c r="A26" s="101"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="94"/>
-      <c r="I26" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="101"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="95"/>
+      <c r="K26" s="102"/>
     </row>
     <row r="27" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="100"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="70" t="s">
+      <c r="A27" s="101"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="94"/>
-      <c r="I27" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="101"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="95"/>
+      <c r="K27" s="102"/>
     </row>
     <row r="28" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="100"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="70" t="s">
+      <c r="A28" s="101"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="94"/>
-      <c r="I28" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="94"/>
-      <c r="K28" s="101"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="95"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="100"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="70" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="94"/>
-      <c r="I29" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="101"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="95"/>
+      <c r="K29" s="102"/>
     </row>
     <row r="30" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="100"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="70" t="s">
+      <c r="A30" s="101"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="94"/>
-      <c r="I30" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="101"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="95"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="100"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="70" t="s">
+      <c r="A31" s="101"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="101"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="95"/>
+      <c r="K31" s="102"/>
     </row>
     <row r="32" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="100">
+      <c r="A32" s="101">
         <v>3</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="70" t="s">
+      <c r="F32" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="94" t="s">
+      <c r="H32" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="94" t="s">
+      <c r="I32" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="101" t="s">
+      <c r="K32" s="102" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="100"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="70" t="s">
+      <c r="A33" s="101"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="101"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="95"/>
+      <c r="K33" s="102"/>
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="100"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="70" t="s">
+      <c r="A34" s="101"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="94"/>
-      <c r="I34" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="94"/>
-      <c r="K34" s="101"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="95"/>
+      <c r="K34" s="102"/>
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="100"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="70" t="s">
+      <c r="A35" s="101"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="94"/>
-      <c r="K35" s="101"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="95"/>
+      <c r="K35" s="102"/>
     </row>
     <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="100"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="70" t="s">
+      <c r="A36" s="101"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="94"/>
-      <c r="K36" s="101"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="95"/>
+      <c r="K36" s="102"/>
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="100"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="70" t="s">
+      <c r="A37" s="101"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="70" t="s">
+      <c r="G37" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="101"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="95"/>
+      <c r="K37" s="102"/>
     </row>
     <row r="38" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="100"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="70" t="s">
+      <c r="A38" s="101"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="70" t="s">
+      <c r="G38" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="94"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="101"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="102"/>
     </row>
     <row r="39" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="100"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="70" t="s">
+      <c r="A39" s="101"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="G39" s="70" t="s">
+      <c r="G39" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="94"/>
-      <c r="I39" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="94"/>
-      <c r="K39" s="101"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="95"/>
+      <c r="K39" s="102"/>
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="100"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="70" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="70" t="s">
+      <c r="G40" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="94"/>
-      <c r="I40" s="96" t="s">
+      <c r="H40" s="95"/>
+      <c r="I40" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="94"/>
-      <c r="K40" s="101"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="102"/>
     </row>
     <row r="41" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="100">
+      <c r="A41" s="101">
         <v>4</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="95" t="s">
+      <c r="D41" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="94" t="s">
+      <c r="H41" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="94" t="s">
+      <c r="I41" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="101" t="s">
+      <c r="K41" s="102" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="70" t="s">
+      <c r="A42" s="101"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="70" t="s">
+      <c r="G42" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="94"/>
-      <c r="I42" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="94"/>
-      <c r="K42" s="101"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="95"/>
+      <c r="K42" s="102"/>
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="100"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="70" t="s">
+      <c r="A43" s="101"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G43" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="94"/>
-      <c r="I43" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="94"/>
-      <c r="K43" s="101"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="95"/>
+      <c r="K43" s="102"/>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="100"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="70" t="s">
+      <c r="A44" s="101"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="70" t="s">
+      <c r="G44" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="94"/>
-      <c r="I44" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="94"/>
-      <c r="K44" s="101"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="95"/>
+      <c r="K44" s="102"/>
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="100"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="70" t="s">
+      <c r="A45" s="101"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="70" t="s">
+      <c r="G45" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H45" s="94"/>
-      <c r="I45" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="94"/>
-      <c r="K45" s="101"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="95"/>
+      <c r="K45" s="102"/>
     </row>
     <row r="46" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="100"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="70" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="G46" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="H46" s="94"/>
-      <c r="I46" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="94"/>
-      <c r="K46" s="101"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="95"/>
+      <c r="K46" s="102"/>
     </row>
     <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="19">
+      <c r="A47" s="20">
         <v>5</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="40" t="s">
         <v>124</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K47" s="49" t="s">
+      <c r="K47" s="50" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="28" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="49"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="50"/>
     </row>
     <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="28" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="G49" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="49"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="28" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="49"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="50"/>
     </row>
     <row r="51" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="28" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H51" s="39"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="49"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="50"/>
     </row>
     <row r="52" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="72">
+      <c r="A52" s="73">
         <v>6</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F52" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="70" t="s">
+      <c r="G52" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="I52" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="39" t="s">
+      <c r="I52" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="73" t="s">
+      <c r="K52" s="74" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="72"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="70" t="s">
+      <c r="A53" s="73"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="70" t="s">
+      <c r="G53" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="73"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="40"/>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="72"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="70" t="s">
+      <c r="A54" s="73"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="70" t="s">
+      <c r="G54" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="39"/>
-      <c r="K54" s="73"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="40"/>
+      <c r="K54" s="74"/>
     </row>
     <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="72"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="70" t="s">
+      <c r="A55" s="73"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="70" t="s">
+      <c r="G55" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="73"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="74"/>
     </row>
     <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="72"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="70" t="s">
+      <c r="A56" s="73"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="39"/>
-      <c r="K56" s="73"/>
-    </row>
-    <row r="57" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="72"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="41" t="s">
+      <c r="H56" s="40"/>
+      <c r="I56" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="40"/>
+      <c r="K56" s="74"/>
+    </row>
+    <row r="57" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="73"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57" s="39"/>
-      <c r="K57" s="73"/>
-    </row>
-    <row r="58" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="72"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="41" t="s">
+      <c r="H57" s="40"/>
+      <c r="I57" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="40"/>
+      <c r="K57" s="74"/>
+    </row>
+    <row r="58" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="73"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="H58" s="39"/>
-      <c r="I58" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="39"/>
-      <c r="K58" s="73"/>
-    </row>
-    <row r="59" spans="1:11" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="72"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="41" t="s">
+      <c r="H58" s="40"/>
+      <c r="I58" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="40"/>
+      <c r="K58" s="74"/>
+    </row>
+    <row r="59" spans="1:11" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="73"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59" s="39"/>
-      <c r="K59" s="73"/>
-    </row>
-    <row r="60" spans="1:11" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="72">
+      <c r="H59" s="40"/>
+      <c r="I59" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="40"/>
+      <c r="K59" s="74"/>
+    </row>
+    <row r="60" spans="1:11" s="41" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="73">
         <v>7</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="70" t="s">
+      <c r="F60" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="39" t="s">
+      <c r="H60" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I60" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="39" t="s">
+      <c r="I60" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="K60" s="73" t="s">
+      <c r="K60" s="74" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="72"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="70" t="s">
+    <row r="61" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="73"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="70" t="s">
+      <c r="G61" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="39"/>
-      <c r="K61" s="73"/>
-    </row>
-    <row r="62" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="72"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="70" t="s">
+      <c r="H61" s="40"/>
+      <c r="I61" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="40"/>
+      <c r="K61" s="74"/>
+    </row>
+    <row r="62" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="73"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="70" t="s">
+      <c r="G62" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="39"/>
-      <c r="I62" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="39"/>
-      <c r="K62" s="73"/>
-    </row>
-    <row r="63" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="72"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="70" t="s">
+      <c r="H62" s="40"/>
+      <c r="I62" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="40"/>
+      <c r="K62" s="74"/>
+    </row>
+    <row r="63" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="73"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="70" t="s">
+      <c r="G63" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J63" s="39"/>
-      <c r="K63" s="73"/>
-    </row>
-    <row r="64" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="72"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="70" t="s">
+      <c r="H63" s="40"/>
+      <c r="I63" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="40"/>
+      <c r="K63" s="74"/>
+    </row>
+    <row r="64" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="73"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="70" t="s">
+      <c r="G64" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="39"/>
-      <c r="K64" s="73"/>
-    </row>
-    <row r="65" spans="1:11" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="72"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="70" t="s">
+      <c r="H64" s="40"/>
+      <c r="I64" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="40"/>
+      <c r="K64" s="74"/>
+    </row>
+    <row r="65" spans="1:11" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="73"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="G65" s="70" t="s">
+      <c r="G65" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="39"/>
-      <c r="K65" s="73"/>
-    </row>
-    <row r="66" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="72"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="70" t="s">
+      <c r="H65" s="40"/>
+      <c r="I65" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="40"/>
+      <c r="K65" s="74"/>
+    </row>
+    <row r="66" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="73"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="70" t="s">
+      <c r="G66" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J66" s="39"/>
-      <c r="K66" s="73"/>
-    </row>
-    <row r="67" spans="1:11" s="40" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="72">
+      <c r="H66" s="40"/>
+      <c r="I66" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="40"/>
+      <c r="K66" s="74"/>
+    </row>
+    <row r="67" spans="1:11" s="41" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="73">
         <v>8</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F67" s="70" t="s">
+      <c r="F67" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="70" t="s">
+      <c r="G67" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H67" s="39" t="s">
+      <c r="H67" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I67" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="39" t="s">
+      <c r="I67" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K67" s="73" t="s">
+      <c r="K67" s="74" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="72"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="70" t="s">
+    <row r="68" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="73"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G68" s="70" t="s">
+      <c r="G68" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J68" s="39"/>
-      <c r="K68" s="73"/>
-    </row>
-    <row r="69" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="72"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="70" t="s">
+      <c r="H68" s="40"/>
+      <c r="I68" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="40"/>
+      <c r="K68" s="74"/>
+    </row>
+    <row r="69" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="73"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="70" t="s">
+      <c r="G69" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="39"/>
-      <c r="K69" s="73"/>
-    </row>
-    <row r="70" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="72"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="70" t="s">
+      <c r="H69" s="40"/>
+      <c r="I69" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="40"/>
+      <c r="K69" s="74"/>
+    </row>
+    <row r="70" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="73"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="70" t="s">
+      <c r="G70" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H70" s="39"/>
-      <c r="I70" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J70" s="39"/>
-      <c r="K70" s="73"/>
-    </row>
-    <row r="71" spans="1:11" s="40" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="72"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="70" t="s">
+      <c r="H70" s="40"/>
+      <c r="I70" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="40"/>
+      <c r="K70" s="74"/>
+    </row>
+    <row r="71" spans="1:11" s="41" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="73"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="G71" s="41" t="s">
+      <c r="G71" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J71" s="39"/>
-      <c r="K71" s="73"/>
-    </row>
-    <row r="72" spans="1:11" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="72"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="41" t="s">
+      <c r="H71" s="40"/>
+      <c r="I71" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="40"/>
+      <c r="K71" s="74"/>
+    </row>
+    <row r="72" spans="1:11" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="73"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="H72" s="39"/>
-      <c r="I72" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J72" s="39"/>
-      <c r="K72" s="73"/>
-    </row>
-    <row r="73" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="72">
+      <c r="H72" s="40"/>
+      <c r="I72" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="40"/>
+      <c r="K72" s="74"/>
+    </row>
+    <row r="73" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="73">
         <v>9</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F73" s="70" t="s">
+      <c r="F73" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G73" s="70" t="s">
+      <c r="G73" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I73" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J73" s="39" t="s">
+      <c r="I73" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K73" s="73" t="s">
+      <c r="K73" s="74" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="40" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="72"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="70" t="s">
+    <row r="74" spans="1:11" s="41" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="73"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G74" s="70" t="s">
+      <c r="G74" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="39"/>
-      <c r="I74" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" s="39"/>
-      <c r="K74" s="73"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="40"/>
+      <c r="K74" s="74"/>
     </row>
     <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="72"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="70" t="s">
+      <c r="A75" s="73"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G75" s="70" t="s">
+      <c r="G75" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J75" s="39"/>
-      <c r="K75" s="73"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="40"/>
+      <c r="K75" s="74"/>
     </row>
     <row r="76" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="72"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="70" t="s">
+      <c r="A76" s="73"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G76" s="70" t="s">
+      <c r="G76" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H76" s="39"/>
-      <c r="I76" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J76" s="39"/>
-      <c r="K76" s="73"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="40"/>
+      <c r="K76" s="74"/>
     </row>
     <row r="77" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="72"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="70" t="s">
+      <c r="A77" s="73"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="G77" s="41" t="s">
+      <c r="G77" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="H77" s="39"/>
-      <c r="I77" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J77" s="39"/>
-      <c r="K77" s="73"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="40"/>
+      <c r="K77" s="74"/>
     </row>
     <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="72"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="41" t="s">
+      <c r="A78" s="73"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="G78" s="41" t="s">
+      <c r="G78" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="H78" s="39"/>
-      <c r="I78" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J78" s="39"/>
-      <c r="K78" s="73"/>
-    </row>
-    <row r="79" spans="1:11" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="72">
+      <c r="H78" s="40"/>
+      <c r="I78" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="40"/>
+      <c r="K78" s="74"/>
+    </row>
+    <row r="79" spans="1:11" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="73">
         <v>10</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F79" s="70" t="s">
+      <c r="F79" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G79" s="70" t="s">
+      <c r="G79" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I79" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="39" t="s">
+      <c r="I79" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="K79" s="73" t="s">
+      <c r="K79" s="74" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="72"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="70" t="s">
+      <c r="A80" s="73"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G80" s="70" t="s">
+      <c r="G80" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J80" s="39"/>
-      <c r="K80" s="73"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="40"/>
+      <c r="K80" s="74"/>
     </row>
     <row r="81" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="72"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="70" t="s">
+      <c r="A81" s="73"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="70" t="s">
+      <c r="G81" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="39"/>
-      <c r="I81" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J81" s="39"/>
-      <c r="K81" s="73"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="40"/>
+      <c r="K81" s="74"/>
     </row>
     <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="72"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="70" t="s">
+      <c r="A82" s="73"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G82" s="70" t="s">
+      <c r="G82" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H82" s="39"/>
-      <c r="I82" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J82" s="39"/>
-      <c r="K82" s="73"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="40"/>
+      <c r="K82" s="74"/>
     </row>
     <row r="83" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="72"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="70" t="s">
+      <c r="A83" s="73"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="G83" s="41" t="s">
+      <c r="G83" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="H83" s="39"/>
-      <c r="I83" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="39"/>
-      <c r="K83" s="73"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="40"/>
+      <c r="K83" s="74"/>
     </row>
     <row r="84" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="72"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="41" t="s">
+      <c r="A84" s="73"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G84" s="41" t="s">
+      <c r="G84" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="H84" s="39"/>
-      <c r="I84" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" s="39"/>
-      <c r="K84" s="73"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="40"/>
+      <c r="K84" s="74"/>
     </row>
     <row r="85" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="104">
+      <c r="A85" s="105">
         <v>11</v>
       </c>
-      <c r="B85" s="103" t="s">
+      <c r="B85" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="103" t="s">
+      <c r="C85" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G85" s="70" t="s">
+      <c r="G85" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H85" s="103" t="s">
+      <c r="H85" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="I85" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J85" s="103" t="s">
+      <c r="I85" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="K85" s="105" t="s">
+      <c r="K85" s="106" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="104"/>
-      <c r="B86" s="103"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="70" t="s">
+      <c r="A86" s="105"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G86" s="70" t="s">
+      <c r="G86" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="103"/>
-      <c r="I86" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J86" s="103"/>
-      <c r="K86" s="105"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="104"/>
+      <c r="K86" s="106"/>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="104"/>
-      <c r="B87" s="103"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="70" t="s">
+      <c r="A87" s="105"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="70" t="s">
+      <c r="G87" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H87" s="103"/>
-      <c r="I87" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J87" s="103"/>
-      <c r="K87" s="105"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="104"/>
+      <c r="K87" s="106"/>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="104"/>
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="70" t="s">
+      <c r="A88" s="105"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G88" s="70" t="s">
+      <c r="G88" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H88" s="103"/>
-      <c r="I88" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J88" s="103"/>
-      <c r="K88" s="105"/>
+      <c r="H88" s="104"/>
+      <c r="I88" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="104"/>
+      <c r="K88" s="106"/>
     </row>
     <row r="89" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="104"/>
-      <c r="B89" s="103"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="70" t="s">
+      <c r="A89" s="105"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="41" t="s">
+      <c r="G89" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="H89" s="103"/>
-      <c r="I89" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J89" s="103"/>
-      <c r="K89" s="105"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="104"/>
+      <c r="K89" s="106"/>
     </row>
     <row r="90" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="104"/>
-      <c r="B90" s="103"/>
-      <c r="C90" s="103"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="41" t="s">
+      <c r="A90" s="105"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="G90" s="41" t="s">
+      <c r="G90" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="H90" s="103"/>
-      <c r="I90" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J90" s="103"/>
-      <c r="K90" s="105"/>
+      <c r="H90" s="104"/>
+      <c r="I90" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="104"/>
+      <c r="K90" s="106"/>
     </row>
     <row r="91" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="72">
+      <c r="A91" s="73">
         <v>12</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="108" t="s">
+      <c r="D91" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="41" t="s">
+      <c r="G91" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="103" t="s">
+      <c r="H91" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="I91" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J91" s="103" t="s">
+      <c r="I91" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="K91" s="107" t="s">
+      <c r="K91" s="108" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="72"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="28" t="s">
+      <c r="A92" s="73"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G92" s="41" t="s">
+      <c r="G92" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H92" s="103"/>
-      <c r="I92" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J92" s="103"/>
-      <c r="K92" s="107"/>
+      <c r="H92" s="104"/>
+      <c r="I92" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="104"/>
+      <c r="K92" s="108"/>
     </row>
     <row r="93" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="72"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="28" t="s">
+      <c r="A93" s="73"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H93" s="103"/>
-      <c r="I93" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J93" s="103"/>
-      <c r="K93" s="107"/>
+      <c r="H93" s="104"/>
+      <c r="I93" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="104"/>
+      <c r="K93" s="108"/>
     </row>
     <row r="94" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="72"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="28" t="s">
+      <c r="A94" s="73"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="41" t="s">
+      <c r="G94" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H94" s="103"/>
-      <c r="I94" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J94" s="103"/>
-      <c r="K94" s="107"/>
+      <c r="H94" s="104"/>
+      <c r="I94" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="104"/>
+      <c r="K94" s="108"/>
     </row>
     <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="72"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="28" t="s">
+      <c r="A95" s="73"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="G95" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H95" s="103"/>
-      <c r="I95" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J95" s="103"/>
-      <c r="K95" s="107"/>
+      <c r="H95" s="104"/>
+      <c r="I95" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="104"/>
+      <c r="K95" s="108"/>
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="72"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="28" t="s">
+      <c r="A96" s="73"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="G96" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H96" s="103"/>
-      <c r="I96" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J96" s="103"/>
-      <c r="K96" s="107"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="104"/>
+      <c r="K96" s="108"/>
     </row>
     <row r="97" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" s="72"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="28" t="s">
+      <c r="A97" s="73"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G97" s="41" t="s">
+      <c r="G97" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H97" s="103"/>
-      <c r="I97" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J97" s="103"/>
-      <c r="K97" s="107"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="104"/>
+      <c r="K97" s="108"/>
     </row>
     <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="72"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="109"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="28" t="s">
+      <c r="A98" s="73"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G98" s="41" t="s">
+      <c r="G98" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="103"/>
-      <c r="I98" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J98" s="103"/>
-      <c r="K98" s="107"/>
+      <c r="H98" s="104"/>
+      <c r="I98" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="104"/>
+      <c r="K98" s="108"/>
     </row>
     <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="72"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="109"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="28" t="s">
+      <c r="A99" s="73"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="G99" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="103"/>
-      <c r="I99" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J99" s="103"/>
-      <c r="K99" s="107"/>
+      <c r="H99" s="104"/>
+      <c r="I99" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="104"/>
+      <c r="K99" s="108"/>
     </row>
     <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="72"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="28" t="s">
+      <c r="A100" s="73"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G100" s="41" t="s">
+      <c r="G100" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H100" s="103"/>
-      <c r="I100" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J100" s="103"/>
-      <c r="K100" s="107"/>
+      <c r="H100" s="104"/>
+      <c r="I100" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="104"/>
+      <c r="K100" s="108"/>
     </row>
     <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="72"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="109"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="28" t="s">
+      <c r="A101" s="73"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G101" s="41" t="s">
+      <c r="G101" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H101" s="103"/>
-      <c r="I101" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J101" s="103"/>
-      <c r="K101" s="107"/>
+      <c r="H101" s="104"/>
+      <c r="I101" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" s="104"/>
+      <c r="K101" s="108"/>
     </row>
     <row r="102" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="72"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="28" t="s">
+      <c r="A102" s="73"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G102" s="41" t="s">
+      <c r="G102" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="103"/>
-      <c r="I102" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J102" s="103"/>
-      <c r="K102" s="107"/>
+      <c r="H102" s="104"/>
+      <c r="I102" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" s="104"/>
+      <c r="K102" s="108"/>
     </row>
     <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="72"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="28" t="s">
+      <c r="A103" s="73"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G103" s="41" t="s">
+      <c r="G103" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H103" s="103"/>
-      <c r="I103" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J103" s="103"/>
-      <c r="K103" s="107"/>
+      <c r="H103" s="104"/>
+      <c r="I103" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" s="104"/>
+      <c r="K103" s="108"/>
     </row>
     <row r="104" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="72"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="28" t="s">
+      <c r="A104" s="73"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G104" s="41" t="s">
+      <c r="G104" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="103"/>
-      <c r="I104" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J104" s="103"/>
-      <c r="K104" s="107"/>
+      <c r="H104" s="104"/>
+      <c r="I104" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="104"/>
+      <c r="K104" s="108"/>
     </row>
     <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="72"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="28" t="s">
+      <c r="A105" s="73"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H105" s="103"/>
-      <c r="I105" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J105" s="103"/>
-      <c r="K105" s="107"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="104"/>
+      <c r="K105" s="108"/>
     </row>
     <row r="106" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="72"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="109"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="41" t="s">
+      <c r="A106" s="73"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="G106" s="41" t="s">
+      <c r="G106" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="H106" s="103"/>
-      <c r="I106" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J106" s="103"/>
-      <c r="K106" s="107"/>
-    </row>
-    <row r="107" spans="1:11" s="40" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="72">
+      <c r="H106" s="104"/>
+      <c r="I106" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" s="104"/>
+      <c r="K106" s="108"/>
+    </row>
+    <row r="107" spans="1:11" s="41" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="73">
         <v>13</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="39" t="s">
+      <c r="C107" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D107" s="68" t="s">
+      <c r="D107" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="E107" s="39" t="s">
+      <c r="E107" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F107" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G107" s="41" t="s">
+      <c r="G107" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H107" s="41" t="s">
+      <c r="H107" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I107" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J107" s="39" t="s">
+      <c r="I107" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K107" s="73" t="s">
+      <c r="K107" s="74" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="72"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="28" t="s">
+      <c r="A108" s="73"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G108" s="41" t="s">
+      <c r="G108" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" s="39"/>
-      <c r="K108" s="73"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="40"/>
+      <c r="K108" s="74"/>
     </row>
     <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="72"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="28" t="s">
+      <c r="A109" s="73"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G109" s="41" t="s">
+      <c r="G109" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J109" s="39"/>
-      <c r="K109" s="73"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="40"/>
+      <c r="K109" s="74"/>
     </row>
     <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="72"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="28" t="s">
+      <c r="A110" s="73"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G110" s="41" t="s">
+      <c r="G110" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J110" s="39"/>
-      <c r="K110" s="73"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="40"/>
+      <c r="K110" s="74"/>
     </row>
     <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="72"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="28" t="s">
+      <c r="A111" s="73"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G111" s="41" t="s">
+      <c r="G111" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H111" s="71"/>
-      <c r="I111" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J111" s="39"/>
-      <c r="K111" s="73"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="40"/>
+      <c r="K111" s="74"/>
     </row>
     <row r="112" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="72"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="28" t="s">
+      <c r="A112" s="73"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G112" s="41" t="s">
+      <c r="G112" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H112" s="71"/>
-      <c r="I112" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J112" s="39"/>
-      <c r="K112" s="73"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="40"/>
+      <c r="K112" s="74"/>
     </row>
     <row r="113" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="72"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="28" t="s">
+      <c r="A113" s="73"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G113" s="41" t="s">
+      <c r="G113" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H113" s="71"/>
-      <c r="I113" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J113" s="39"/>
-      <c r="K113" s="73"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="40"/>
+      <c r="K113" s="74"/>
     </row>
     <row r="114" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="72"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="28" t="s">
+      <c r="A114" s="73"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G114" s="41" t="s">
+      <c r="G114" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="H114" s="71"/>
-      <c r="I114" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J114" s="39"/>
-      <c r="K114" s="73"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" s="40"/>
+      <c r="K114" s="74"/>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="72"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="28" t="s">
+      <c r="A115" s="73"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G115" s="41" t="s">
+      <c r="G115" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H115" s="71"/>
-      <c r="I115" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J115" s="39"/>
-      <c r="K115" s="73"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="40"/>
+      <c r="K115" s="74"/>
     </row>
     <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="72"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="28" t="s">
+      <c r="A116" s="73"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="41" t="s">
+      <c r="G116" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H116" s="71"/>
-      <c r="I116" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J116" s="39"/>
-      <c r="K116" s="73"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="40"/>
+      <c r="K116" s="74"/>
     </row>
     <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="72"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="28" t="s">
+      <c r="A117" s="73"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="41" t="s">
+      <c r="G117" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J117" s="39"/>
-      <c r="K117" s="73"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" s="40"/>
+      <c r="K117" s="74"/>
     </row>
     <row r="118" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="72"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="28" t="s">
+      <c r="A118" s="73"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G118" s="41" t="s">
+      <c r="G118" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J118" s="39"/>
-      <c r="K118" s="73"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" s="40"/>
+      <c r="K118" s="74"/>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="72"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="28" t="s">
+      <c r="A119" s="73"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="41" t="s">
+      <c r="G119" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H119" s="71"/>
-      <c r="I119" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J119" s="39"/>
-      <c r="K119" s="73"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" s="40"/>
+      <c r="K119" s="74"/>
     </row>
     <row r="120" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A120" s="72"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="28" t="s">
+      <c r="A120" s="73"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G120" s="41" t="s">
+      <c r="G120" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H120" s="71"/>
-      <c r="I120" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J120" s="39"/>
-      <c r="K120" s="73"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" s="40"/>
+      <c r="K120" s="74"/>
     </row>
     <row r="121" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" s="72"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="28" t="s">
+      <c r="A121" s="73"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G121" s="41" t="s">
+      <c r="G121" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H121" s="71"/>
-      <c r="I121" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J121" s="39"/>
-      <c r="K121" s="73"/>
-    </row>
-    <row r="122" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="102" t="s">
+      <c r="H121" s="17"/>
+      <c r="I121" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" s="40"/>
+      <c r="K121" s="74"/>
+    </row>
+    <row r="122" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="75"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="53"/>
+      <c r="F122" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="G122" s="102" t="s">
+      <c r="G122" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="H122" s="102"/>
-      <c r="I122" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="J122" s="52"/>
-      <c r="K122" s="75"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="53"/>
+      <c r="K122" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
+  <mergeCells count="104">
     <mergeCell ref="J107:J122"/>
     <mergeCell ref="K107:K122"/>
+    <mergeCell ref="H107:H122"/>
     <mergeCell ref="E107:E122"/>
     <mergeCell ref="D107:D122"/>
     <mergeCell ref="C107:C122"/>
@@ -5971,7 +5975,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -5982,7 +5986,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="12" t="s">
         <v>155</v>
       </c>
@@ -5991,7 +5995,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="12" t="s">
         <v>156</v>
       </c>
@@ -6000,7 +6004,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="12" t="s">
         <v>157</v>
       </c>
@@ -6009,7 +6013,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="91" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -6020,25 +6024,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="92" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="93" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="91" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -6049,7 +6053,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="90"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="12" t="s">
         <v>164</v>
       </c>
@@ -6058,18 +6062,18 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="91" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="94" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="12" t="s">
         <v>1</v>
       </c>
@@ -6078,7 +6082,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="90"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="12" t="s">
         <v>2</v>
       </c>
@@ -6087,7 +6091,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="91" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -6098,7 +6102,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="12" t="s">
         <v>170</v>
       </c>
@@ -6107,7 +6111,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -6139,7 +6143,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="91" t="s">
         <v>152</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -6150,7 +6154,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="12" t="s">
         <v>155</v>
       </c>
@@ -6159,7 +6163,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="12" t="s">
         <v>156</v>
       </c>
@@ -6168,7 +6172,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="12" t="s">
         <v>157</v>
       </c>
@@ -6177,7 +6181,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="91" t="s">
         <v>158</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -6188,25 +6192,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="90"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C53" s="92" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="93" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="91" t="s">
         <v>162</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -6217,7 +6221,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="90"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="12" t="s">
         <v>164</v>
       </c>
@@ -6226,18 +6230,18 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="91" t="s">
         <v>166</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="93" t="s">
+      <c r="C57" s="94" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="90"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="12" t="s">
         <v>1</v>
       </c>
@@ -6246,7 +6250,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="90"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="12" t="s">
         <v>2</v>
       </c>
@@ -6255,7 +6259,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="91" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -6266,7 +6270,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="90"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="12" t="s">
         <v>170</v>
       </c>
@@ -6275,7 +6279,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="90"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="12" t="s">
         <v>22</v>
       </c>

--- a/test-plan/Test plan.xlsx
+++ b/test-plan/Test plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanelamesic/magento-testautomation-framework/test-plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81146E32-4E70-9644-9E76-5CF929302C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE6E6A-59C7-5144-AAE8-30CA3E16B662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{BF2A5069-A26B-6E47-9505-AA233A1884BE}"/>
   </bookViews>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Steps</t>
-  </si>
-  <si>
-    <t>Magento e-commerce</t>
   </si>
   <si>
     <t>Sanela Mesic</t>
@@ -1044,6 +1041,9 @@
   </si>
   <si>
     <t>16. Verify that price is now 3 times larger than it was when initialy qty was 1 and count is increased</t>
+  </si>
+  <si>
+    <t>Luma e-commerce</t>
   </si>
 </sst>
 </file>
@@ -2225,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4379D5B-9C23-144C-9E1D-D94793403BC9}">
   <dimension ref="A3:K71"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,80 +2248,80 @@
     <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" s="83" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="80" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="I8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="J8" s="79" t="s">
         <v>21</v>
-      </c>
-      <c r="J8" s="79" t="s">
-        <v>22</v>
       </c>
       <c r="K8" s="82" t="s">
         <v>3</v>
@@ -2332,34 +2332,34 @@
         <v>1</v>
       </c>
       <c r="B9" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="68" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="46" t="s">
-        <v>27</v>
-      </c>
       <c r="K9" s="49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2369,14 +2369,14 @@
       <c r="D10" s="69"/>
       <c r="E10" s="18"/>
       <c r="F10" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="50"/>
@@ -2388,14 +2388,14 @@
       <c r="D11" s="69"/>
       <c r="E11" s="18"/>
       <c r="F11" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="50"/>
@@ -2407,14 +2407,14 @@
       <c r="D12" s="69"/>
       <c r="E12" s="18"/>
       <c r="F12" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="50"/>
@@ -2426,14 +2426,14 @@
       <c r="D13" s="70"/>
       <c r="E13" s="52"/>
       <c r="F13" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="54"/>
@@ -2443,34 +2443,34 @@
         <v>2</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="24" t="s">
-        <v>27</v>
-      </c>
       <c r="K14" s="56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2480,14 +2480,14 @@
       <c r="D15" s="67"/>
       <c r="E15" s="22"/>
       <c r="F15" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="57"/>
@@ -2499,14 +2499,14 @@
       <c r="D16" s="67"/>
       <c r="E16" s="22"/>
       <c r="F16" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="57"/>
@@ -2518,14 +2518,14 @@
       <c r="D17" s="67"/>
       <c r="E17" s="22"/>
       <c r="F17" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="57"/>
@@ -2537,14 +2537,14 @@
       <c r="D18" s="67"/>
       <c r="E18" s="22"/>
       <c r="F18" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="57"/>
@@ -2556,14 +2556,14 @@
       <c r="D19" s="67"/>
       <c r="E19" s="22"/>
       <c r="F19" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="57"/>
@@ -2575,14 +2575,14 @@
       <c r="D20" s="67"/>
       <c r="E20" s="22"/>
       <c r="F20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="42" t="s">
         <v>49</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>50</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="57"/>
@@ -2594,14 +2594,14 @@
       <c r="D21" s="67"/>
       <c r="E21" s="22"/>
       <c r="F21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>82</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="57"/>
@@ -2613,14 +2613,14 @@
       <c r="D22" s="67"/>
       <c r="E22" s="22"/>
       <c r="F22" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="57"/>
@@ -2632,14 +2632,14 @@
       <c r="D23" s="67"/>
       <c r="E23" s="22"/>
       <c r="F23" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="57"/>
@@ -2651,14 +2651,14 @@
       <c r="D24" s="67"/>
       <c r="E24" s="22"/>
       <c r="F24" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="57"/>
@@ -2670,14 +2670,14 @@
       <c r="D25" s="67"/>
       <c r="E25" s="22"/>
       <c r="F25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="42" t="s">
         <v>59</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="57"/>
@@ -2689,14 +2689,14 @@
       <c r="D26" s="67"/>
       <c r="E26" s="22"/>
       <c r="F26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="42" t="s">
         <v>61</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>62</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="57"/>
@@ -2708,14 +2708,14 @@
       <c r="D27" s="67"/>
       <c r="E27" s="22"/>
       <c r="F27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="57"/>
@@ -2727,14 +2727,14 @@
       <c r="D28" s="67"/>
       <c r="E28" s="22"/>
       <c r="F28" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="42" t="s">
         <v>65</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>66</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="57"/>
@@ -2746,14 +2746,14 @@
       <c r="D29" s="67"/>
       <c r="E29" s="22"/>
       <c r="F29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>68</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="57"/>
@@ -2765,14 +2765,14 @@
       <c r="D30" s="67"/>
       <c r="E30" s="22"/>
       <c r="F30" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="42" t="s">
         <v>70</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>71</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="57"/>
@@ -2784,14 +2784,14 @@
       <c r="D31" s="67"/>
       <c r="E31" s="22"/>
       <c r="F31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="42" t="s">
         <v>72</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>73</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="57"/>
@@ -2803,14 +2803,14 @@
       <c r="D32" s="67"/>
       <c r="E32" s="22"/>
       <c r="F32" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="42" t="s">
         <v>74</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>75</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="57"/>
@@ -2822,14 +2822,14 @@
       <c r="D33" s="67"/>
       <c r="E33" s="22"/>
       <c r="F33" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>77</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="57"/>
@@ -2841,14 +2841,14 @@
       <c r="D34" s="67"/>
       <c r="E34" s="22"/>
       <c r="F34" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="42" t="s">
         <v>78</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>79</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="57"/>
@@ -2860,14 +2860,14 @@
       <c r="D35" s="67"/>
       <c r="E35" s="22"/>
       <c r="F35" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="57"/>
@@ -2879,14 +2879,14 @@
       <c r="D36" s="67"/>
       <c r="E36" s="22"/>
       <c r="F36" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="57"/>
@@ -2898,14 +2898,14 @@
       <c r="D37" s="67"/>
       <c r="E37" s="22"/>
       <c r="F37" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>87</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="57"/>
@@ -2917,14 +2917,14 @@
       <c r="D38" s="67"/>
       <c r="E38" s="22"/>
       <c r="F38" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="60" t="s">
         <v>88</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>89</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="57"/>
@@ -2934,34 +2934,34 @@
         <v>3</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="E39" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="I39" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="24" t="s">
-        <v>27</v>
-      </c>
       <c r="K39" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2971,14 +2971,14 @@
       <c r="D40" s="69"/>
       <c r="E40" s="22"/>
       <c r="F40" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="42" t="s">
         <v>95</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>96</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="64"/>
@@ -2990,14 +2990,14 @@
       <c r="D41" s="69"/>
       <c r="E41" s="22"/>
       <c r="F41" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="64"/>
@@ -3009,14 +3009,14 @@
       <c r="D42" s="69"/>
       <c r="E42" s="22"/>
       <c r="F42" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J42" s="17"/>
       <c r="K42" s="64"/>
@@ -3028,14 +3028,14 @@
       <c r="D43" s="69"/>
       <c r="E43" s="22"/>
       <c r="F43" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="64"/>
@@ -3047,14 +3047,14 @@
       <c r="D44" s="69"/>
       <c r="E44" s="22"/>
       <c r="F44" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="64"/>
@@ -3066,14 +3066,14 @@
       <c r="D45" s="69"/>
       <c r="E45" s="22"/>
       <c r="F45" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="64"/>
@@ -3085,14 +3085,14 @@
       <c r="D46" s="70"/>
       <c r="E46" s="58"/>
       <c r="F46" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="58"/>
       <c r="I46" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46" s="19"/>
       <c r="K46" s="65"/>
@@ -3365,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64170EA0-41B4-5B4C-ABCC-1D60A70D56AD}">
   <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3376,8 +3376,8 @@
     <col min="3" max="3" width="24.83203125" style="59" customWidth="1"/>
     <col min="4" max="4" width="57" style="59" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="59" customWidth="1"/>
-    <col min="6" max="6" width="56.5" style="59" customWidth="1"/>
-    <col min="7" max="7" width="76.1640625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="87.5" style="59" customWidth="1"/>
     <col min="8" max="8" width="49.6640625" style="59" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="59"/>
   </cols>
@@ -3385,80 +3385,80 @@
     <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="85" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" s="77" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="99" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="99" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="99" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="99" t="s">
+      <c r="I8" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="J8" s="99" t="s">
         <v>21</v>
-      </c>
-      <c r="J8" s="99" t="s">
-        <v>22</v>
       </c>
       <c r="K8" s="100" t="s">
         <v>3</v>
@@ -3469,31 +3469,31 @@
         <v>1</v>
       </c>
       <c r="B9" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>112</v>
-      </c>
       <c r="F9" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="95" t="s">
         <v>26</v>
-      </c>
-      <c r="J9" s="95" t="s">
-        <v>27</v>
       </c>
       <c r="K9" s="102" t="s">
         <v>0</v>
@@ -3506,14 +3506,14 @@
       <c r="D10" s="96"/>
       <c r="E10" s="95"/>
       <c r="F10" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="95"/>
       <c r="K10" s="102"/>
@@ -3525,14 +3525,14 @@
       <c r="D11" s="96"/>
       <c r="E11" s="95"/>
       <c r="F11" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="95"/>
       <c r="I11" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="95"/>
       <c r="K11" s="102"/>
@@ -3544,14 +3544,14 @@
       <c r="D12" s="96"/>
       <c r="E12" s="95"/>
       <c r="F12" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="95"/>
       <c r="I12" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="95"/>
       <c r="K12" s="102"/>
@@ -3563,14 +3563,14 @@
       <c r="D13" s="96"/>
       <c r="E13" s="95"/>
       <c r="F13" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="95"/>
       <c r="I13" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="95"/>
       <c r="K13" s="102"/>
@@ -3582,14 +3582,14 @@
       <c r="D14" s="96"/>
       <c r="E14" s="95"/>
       <c r="F14" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="95"/>
       <c r="I14" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="95"/>
       <c r="K14" s="102"/>
@@ -3601,14 +3601,14 @@
       <c r="D15" s="96"/>
       <c r="E15" s="95"/>
       <c r="F15" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="71" t="s">
         <v>49</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>50</v>
       </c>
       <c r="H15" s="95"/>
       <c r="I15" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="102"/>
@@ -3620,14 +3620,14 @@
       <c r="D16" s="96"/>
       <c r="E16" s="95"/>
       <c r="F16" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="95"/>
       <c r="K16" s="102"/>
@@ -3639,33 +3639,33 @@
       <c r="D17" s="96"/>
       <c r="E17" s="95"/>
       <c r="F17" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="71" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="71" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="95"/>
       <c r="I17" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="95"/>
       <c r="K17" s="102"/>
     </row>
-    <row r="18" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="101"/>
       <c r="B18" s="95"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
       <c r="E18" s="95"/>
       <c r="F18" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="95"/>
       <c r="I18" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="102"/>
@@ -3675,31 +3675,31 @@
         <v>2</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="95" t="s">
         <v>26</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>27</v>
       </c>
       <c r="K19" s="102" t="s">
         <v>0</v>
@@ -3712,14 +3712,14 @@
       <c r="D20" s="96"/>
       <c r="E20" s="95"/>
       <c r="F20" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="95"/>
       <c r="I20" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="95"/>
       <c r="K20" s="102"/>
@@ -3731,14 +3731,14 @@
       <c r="D21" s="96"/>
       <c r="E21" s="95"/>
       <c r="F21" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="95"/>
       <c r="I21" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="95"/>
       <c r="K21" s="102"/>
@@ -3750,14 +3750,14 @@
       <c r="D22" s="96"/>
       <c r="E22" s="95"/>
       <c r="F22" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="95"/>
       <c r="I22" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="95"/>
       <c r="K22" s="102"/>
@@ -3769,14 +3769,14 @@
       <c r="D23" s="96"/>
       <c r="E23" s="95"/>
       <c r="F23" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="95"/>
       <c r="I23" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" s="95"/>
       <c r="K23" s="102"/>
@@ -3788,14 +3788,14 @@
       <c r="D24" s="96"/>
       <c r="E24" s="95"/>
       <c r="F24" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="95"/>
       <c r="I24" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="95"/>
       <c r="K24" s="102"/>
@@ -3807,14 +3807,14 @@
       <c r="D25" s="96"/>
       <c r="E25" s="95"/>
       <c r="F25" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="71" t="s">
         <v>49</v>
-      </c>
-      <c r="G25" s="71" t="s">
-        <v>50</v>
       </c>
       <c r="H25" s="95"/>
       <c r="I25" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J25" s="95"/>
       <c r="K25" s="102"/>
@@ -3826,14 +3826,14 @@
       <c r="D26" s="96"/>
       <c r="E26" s="95"/>
       <c r="F26" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="95"/>
       <c r="I26" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26" s="95"/>
       <c r="K26" s="102"/>
@@ -3845,14 +3845,14 @@
       <c r="D27" s="96"/>
       <c r="E27" s="95"/>
       <c r="F27" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="71" t="s">
         <v>113</v>
-      </c>
-      <c r="G27" s="71" t="s">
-        <v>114</v>
       </c>
       <c r="H27" s="95"/>
       <c r="I27" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" s="95"/>
       <c r="K27" s="102"/>
@@ -3864,14 +3864,14 @@
       <c r="D28" s="96"/>
       <c r="E28" s="95"/>
       <c r="F28" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="H28" s="95"/>
       <c r="I28" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J28" s="95"/>
       <c r="K28" s="102"/>
@@ -3883,14 +3883,14 @@
       <c r="D29" s="96"/>
       <c r="E29" s="95"/>
       <c r="F29" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="71" t="s">
         <v>135</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>136</v>
       </c>
       <c r="H29" s="95"/>
       <c r="I29" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="95"/>
       <c r="K29" s="102"/>
@@ -3902,14 +3902,14 @@
       <c r="D30" s="96"/>
       <c r="E30" s="95"/>
       <c r="F30" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="71" t="s">
         <v>137</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>138</v>
       </c>
       <c r="H30" s="95"/>
       <c r="I30" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" s="95"/>
       <c r="K30" s="102"/>
@@ -3921,14 +3921,14 @@
       <c r="D31" s="96"/>
       <c r="E31" s="95"/>
       <c r="F31" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="G31" s="71" t="s">
-        <v>140</v>
       </c>
       <c r="H31" s="95"/>
       <c r="I31" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="95"/>
       <c r="K31" s="102"/>
@@ -3938,31 +3938,31 @@
         <v>3</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="95" t="s">
         <v>26</v>
-      </c>
-      <c r="J32" s="95" t="s">
-        <v>27</v>
       </c>
       <c r="K32" s="102" t="s">
         <v>0</v>
@@ -3975,14 +3975,14 @@
       <c r="D33" s="96"/>
       <c r="E33" s="95"/>
       <c r="F33" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="95"/>
       <c r="I33" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" s="95"/>
       <c r="K33" s="102"/>
@@ -3994,14 +3994,14 @@
       <c r="D34" s="96"/>
       <c r="E34" s="95"/>
       <c r="F34" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H34" s="95"/>
       <c r="I34" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="95"/>
       <c r="K34" s="102"/>
@@ -4013,14 +4013,14 @@
       <c r="D35" s="96"/>
       <c r="E35" s="95"/>
       <c r="F35" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" s="95"/>
       <c r="I35" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" s="95"/>
       <c r="K35" s="102"/>
@@ -4032,14 +4032,14 @@
       <c r="D36" s="96"/>
       <c r="E36" s="95"/>
       <c r="F36" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="95"/>
       <c r="I36" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J36" s="95"/>
       <c r="K36" s="102"/>
@@ -4051,14 +4051,14 @@
       <c r="D37" s="96"/>
       <c r="E37" s="95"/>
       <c r="F37" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37" s="95"/>
       <c r="I37" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J37" s="95"/>
       <c r="K37" s="102"/>
@@ -4070,10 +4070,10 @@
       <c r="D38" s="96"/>
       <c r="E38" s="95"/>
       <c r="F38" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="71" t="s">
         <v>49</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>50</v>
       </c>
       <c r="H38" s="95"/>
       <c r="I38" s="71"/>
@@ -4087,14 +4087,14 @@
       <c r="D39" s="96"/>
       <c r="E39" s="95"/>
       <c r="F39" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="71" t="s">
         <v>125</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>126</v>
       </c>
       <c r="H39" s="95"/>
       <c r="I39" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J39" s="95"/>
       <c r="K39" s="102"/>
@@ -4106,14 +4106,14 @@
       <c r="D40" s="96"/>
       <c r="E40" s="95"/>
       <c r="F40" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="71" t="s">
         <v>127</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>128</v>
       </c>
       <c r="H40" s="95"/>
       <c r="I40" s="97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J40" s="95"/>
       <c r="K40" s="102"/>
@@ -4123,31 +4123,31 @@
         <v>4</v>
       </c>
       <c r="B41" s="95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="95" t="s">
-        <v>131</v>
-      </c>
       <c r="F41" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41" s="95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I41" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="95" t="s">
         <v>26</v>
-      </c>
-      <c r="J41" s="95" t="s">
-        <v>27</v>
       </c>
       <c r="K41" s="102" t="s">
         <v>0</v>
@@ -4160,14 +4160,14 @@
       <c r="D42" s="96"/>
       <c r="E42" s="95"/>
       <c r="F42" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H42" s="95"/>
       <c r="I42" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J42" s="95"/>
       <c r="K42" s="102"/>
@@ -4179,14 +4179,14 @@
       <c r="D43" s="96"/>
       <c r="E43" s="95"/>
       <c r="F43" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H43" s="95"/>
       <c r="I43" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J43" s="95"/>
       <c r="K43" s="102"/>
@@ -4198,14 +4198,14 @@
       <c r="D44" s="96"/>
       <c r="E44" s="95"/>
       <c r="F44" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44" s="95"/>
       <c r="I44" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" s="95"/>
       <c r="K44" s="102"/>
@@ -4217,14 +4217,14 @@
       <c r="D45" s="96"/>
       <c r="E45" s="95"/>
       <c r="F45" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="95"/>
       <c r="I45" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J45" s="95"/>
       <c r="K45" s="102"/>
@@ -4236,14 +4236,14 @@
       <c r="D46" s="96"/>
       <c r="E46" s="95"/>
       <c r="F46" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H46" s="95"/>
       <c r="I46" s="107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46" s="95"/>
       <c r="K46" s="102"/>
@@ -4253,31 +4253,31 @@
         <v>5</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="E47" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="40" t="s">
-        <v>120</v>
-      </c>
       <c r="F47" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="K47" s="50" t="s">
         <v>0</v>
@@ -4290,14 +4290,14 @@
       <c r="D48" s="69"/>
       <c r="E48" s="18"/>
       <c r="F48" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H48" s="40"/>
       <c r="I48" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="50"/>
@@ -4309,14 +4309,14 @@
       <c r="D49" s="69"/>
       <c r="E49" s="18"/>
       <c r="F49" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="50"/>
@@ -4328,14 +4328,14 @@
       <c r="D50" s="69"/>
       <c r="E50" s="18"/>
       <c r="F50" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" s="40"/>
       <c r="I50" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J50" s="18"/>
       <c r="K50" s="50"/>
@@ -4347,14 +4347,14 @@
       <c r="D51" s="69"/>
       <c r="E51" s="18"/>
       <c r="F51" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J51" s="18"/>
       <c r="K51" s="50"/>
@@ -4364,31 +4364,31 @@
         <v>6</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I52" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="40" t="s">
         <v>26</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>27</v>
       </c>
       <c r="K52" s="74" t="s">
         <v>0</v>
@@ -4401,14 +4401,14 @@
       <c r="D53" s="69"/>
       <c r="E53" s="40"/>
       <c r="F53" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H53" s="40"/>
       <c r="I53" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J53" s="40"/>
       <c r="K53" s="74"/>
@@ -4420,14 +4420,14 @@
       <c r="D54" s="69"/>
       <c r="E54" s="40"/>
       <c r="F54" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J54" s="40"/>
       <c r="K54" s="74"/>
@@ -4439,14 +4439,14 @@
       <c r="D55" s="69"/>
       <c r="E55" s="40"/>
       <c r="F55" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55" s="40"/>
       <c r="I55" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J55" s="40"/>
       <c r="K55" s="74"/>
@@ -4458,14 +4458,14 @@
       <c r="D56" s="69"/>
       <c r="E56" s="40"/>
       <c r="F56" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J56" s="40"/>
       <c r="K56" s="74"/>
@@ -4477,14 +4477,14 @@
       <c r="D57" s="69"/>
       <c r="E57" s="40"/>
       <c r="F57" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H57" s="40"/>
       <c r="I57" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="74"/>
@@ -4496,14 +4496,14 @@
       <c r="D58" s="69"/>
       <c r="E58" s="40"/>
       <c r="F58" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="42" t="s">
         <v>144</v>
-      </c>
-      <c r="G58" s="42" t="s">
-        <v>145</v>
       </c>
       <c r="H58" s="40"/>
       <c r="I58" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="74"/>
@@ -4515,14 +4515,14 @@
       <c r="D59" s="69"/>
       <c r="E59" s="40"/>
       <c r="F59" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="G59" s="42" t="s">
-        <v>147</v>
       </c>
       <c r="H59" s="40"/>
       <c r="I59" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J59" s="40"/>
       <c r="K59" s="74"/>
@@ -4532,31 +4532,31 @@
         <v>7</v>
       </c>
       <c r="B60" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>182</v>
-      </c>
       <c r="F60" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H60" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="I60" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="40" t="s">
         <v>187</v>
-      </c>
-      <c r="I60" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="40" t="s">
-        <v>188</v>
       </c>
       <c r="K60" s="74" t="s">
         <v>0</v>
@@ -4569,14 +4569,14 @@
       <c r="D61" s="69"/>
       <c r="E61" s="40"/>
       <c r="F61" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H61" s="40"/>
       <c r="I61" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J61" s="40"/>
       <c r="K61" s="74"/>
@@ -4588,14 +4588,14 @@
       <c r="D62" s="69"/>
       <c r="E62" s="40"/>
       <c r="F62" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H62" s="40"/>
       <c r="I62" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J62" s="40"/>
       <c r="K62" s="74"/>
@@ -4607,14 +4607,14 @@
       <c r="D63" s="69"/>
       <c r="E63" s="40"/>
       <c r="F63" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J63" s="40"/>
       <c r="K63" s="74"/>
@@ -4626,14 +4626,14 @@
       <c r="D64" s="69"/>
       <c r="E64" s="40"/>
       <c r="F64" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G64" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J64" s="40"/>
       <c r="K64" s="74"/>
@@ -4645,14 +4645,14 @@
       <c r="D65" s="69"/>
       <c r="E65" s="40"/>
       <c r="F65" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" s="71" t="s">
         <v>184</v>
-      </c>
-      <c r="G65" s="71" t="s">
-        <v>185</v>
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J65" s="40"/>
       <c r="K65" s="74"/>
@@ -4664,14 +4664,14 @@
       <c r="D66" s="69"/>
       <c r="E66" s="40"/>
       <c r="F66" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J66" s="40"/>
       <c r="K66" s="74"/>
@@ -4681,31 +4681,31 @@
         <v>8</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F67" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I67" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="40" t="s">
         <v>26</v>
-      </c>
-      <c r="J67" s="40" t="s">
-        <v>27</v>
       </c>
       <c r="K67" s="74" t="s">
         <v>0</v>
@@ -4718,14 +4718,14 @@
       <c r="D68" s="90"/>
       <c r="E68" s="40"/>
       <c r="F68" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J68" s="40"/>
       <c r="K68" s="74"/>
@@ -4737,14 +4737,14 @@
       <c r="D69" s="90"/>
       <c r="E69" s="40"/>
       <c r="F69" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69" s="40"/>
       <c r="I69" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J69" s="40"/>
       <c r="K69" s="74"/>
@@ -4756,14 +4756,14 @@
       <c r="D70" s="90"/>
       <c r="E70" s="40"/>
       <c r="F70" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" s="40"/>
       <c r="I70" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J70" s="40"/>
       <c r="K70" s="74"/>
@@ -4775,14 +4775,14 @@
       <c r="D71" s="90"/>
       <c r="E71" s="40"/>
       <c r="F71" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>191</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>192</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J71" s="40"/>
       <c r="K71" s="74"/>
@@ -4794,14 +4794,14 @@
       <c r="D72" s="90"/>
       <c r="E72" s="40"/>
       <c r="F72" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>193</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>194</v>
       </c>
       <c r="H72" s="40"/>
       <c r="I72" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J72" s="40"/>
       <c r="K72" s="74"/>
@@ -4811,31 +4811,31 @@
         <v>9</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F73" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I73" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="40" t="s">
         <v>26</v>
-      </c>
-      <c r="J73" s="40" t="s">
-        <v>27</v>
       </c>
       <c r="K73" s="74" t="s">
         <v>0</v>
@@ -4848,14 +4848,14 @@
       <c r="D74" s="69"/>
       <c r="E74" s="40"/>
       <c r="F74" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G74" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H74" s="40"/>
       <c r="I74" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J74" s="40"/>
       <c r="K74" s="74"/>
@@ -4867,14 +4867,14 @@
       <c r="D75" s="69"/>
       <c r="E75" s="40"/>
       <c r="F75" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J75" s="40"/>
       <c r="K75" s="74"/>
@@ -4886,14 +4886,14 @@
       <c r="D76" s="69"/>
       <c r="E76" s="40"/>
       <c r="F76" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J76" s="40"/>
       <c r="K76" s="74"/>
@@ -4905,14 +4905,14 @@
       <c r="D77" s="69"/>
       <c r="E77" s="40"/>
       <c r="F77" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77" s="42" t="s">
         <v>191</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>192</v>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J77" s="40"/>
       <c r="K77" s="74"/>
@@ -4924,14 +4924,14 @@
       <c r="D78" s="69"/>
       <c r="E78" s="40"/>
       <c r="F78" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="G78" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J78" s="40"/>
       <c r="K78" s="74"/>
@@ -4941,31 +4941,31 @@
         <v>10</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F79" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I79" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K79" s="74" t="s">
         <v>0</v>
@@ -4978,14 +4978,14 @@
       <c r="D80" s="69"/>
       <c r="E80" s="40"/>
       <c r="F80" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J80" s="40"/>
       <c r="K80" s="74"/>
@@ -4997,14 +4997,14 @@
       <c r="D81" s="69"/>
       <c r="E81" s="40"/>
       <c r="F81" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J81" s="40"/>
       <c r="K81" s="74"/>
@@ -5016,14 +5016,14 @@
       <c r="D82" s="69"/>
       <c r="E82" s="40"/>
       <c r="F82" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J82" s="40"/>
       <c r="K82" s="74"/>
@@ -5035,14 +5035,14 @@
       <c r="D83" s="69"/>
       <c r="E83" s="40"/>
       <c r="F83" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J83" s="40"/>
       <c r="K83" s="74"/>
@@ -5054,14 +5054,14 @@
       <c r="D84" s="69"/>
       <c r="E84" s="40"/>
       <c r="F84" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" s="42" t="s">
         <v>193</v>
-      </c>
-      <c r="G84" s="42" t="s">
-        <v>194</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J84" s="40"/>
       <c r="K84" s="74"/>
@@ -5071,31 +5071,31 @@
         <v>11</v>
       </c>
       <c r="B85" s="104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85" s="104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F85" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H85" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I85" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="104" t="s">
         <v>26</v>
-      </c>
-      <c r="J85" s="104" t="s">
-        <v>27</v>
       </c>
       <c r="K85" s="106" t="s">
         <v>0</v>
@@ -5108,14 +5108,14 @@
       <c r="D86" s="69"/>
       <c r="E86" s="40"/>
       <c r="F86" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H86" s="104"/>
       <c r="I86" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J86" s="104"/>
       <c r="K86" s="106"/>
@@ -5127,14 +5127,14 @@
       <c r="D87" s="69"/>
       <c r="E87" s="40"/>
       <c r="F87" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G87" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87" s="104"/>
       <c r="I87" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J87" s="104"/>
       <c r="K87" s="106"/>
@@ -5146,14 +5146,14 @@
       <c r="D88" s="69"/>
       <c r="E88" s="40"/>
       <c r="F88" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H88" s="104"/>
       <c r="I88" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J88" s="104"/>
       <c r="K88" s="106"/>
@@ -5165,14 +5165,14 @@
       <c r="D89" s="69"/>
       <c r="E89" s="40"/>
       <c r="F89" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H89" s="104"/>
       <c r="I89" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J89" s="104"/>
       <c r="K89" s="106"/>
@@ -5184,14 +5184,14 @@
       <c r="D90" s="69"/>
       <c r="E90" s="40"/>
       <c r="F90" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="G90" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="H90" s="104"/>
       <c r="I90" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J90" s="104"/>
       <c r="K90" s="106"/>
@@ -5201,31 +5201,31 @@
         <v>12</v>
       </c>
       <c r="B91" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="C91" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="109" t="s">
-        <v>218</v>
-      </c>
       <c r="E91" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H91" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I91" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J91" s="104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K91" s="108" t="s">
         <v>0</v>
@@ -5238,14 +5238,14 @@
       <c r="D92" s="110"/>
       <c r="E92" s="40"/>
       <c r="F92" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H92" s="104"/>
       <c r="I92" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J92" s="104"/>
       <c r="K92" s="108"/>
@@ -5257,14 +5257,14 @@
       <c r="D93" s="110"/>
       <c r="E93" s="40"/>
       <c r="F93" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H93" s="104"/>
       <c r="I93" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J93" s="104"/>
       <c r="K93" s="108"/>
@@ -5276,14 +5276,14 @@
       <c r="D94" s="110"/>
       <c r="E94" s="40"/>
       <c r="F94" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94" s="104"/>
       <c r="I94" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J94" s="104"/>
       <c r="K94" s="108"/>
@@ -5295,14 +5295,14 @@
       <c r="D95" s="110"/>
       <c r="E95" s="40"/>
       <c r="F95" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95" s="104"/>
       <c r="I95" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J95" s="104"/>
       <c r="K95" s="108"/>
@@ -5314,14 +5314,14 @@
       <c r="D96" s="110"/>
       <c r="E96" s="40"/>
       <c r="F96" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H96" s="104"/>
       <c r="I96" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J96" s="104"/>
       <c r="K96" s="108"/>
@@ -5333,14 +5333,14 @@
       <c r="D97" s="110"/>
       <c r="E97" s="40"/>
       <c r="F97" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="42" t="s">
         <v>49</v>
-      </c>
-      <c r="G97" s="42" t="s">
-        <v>50</v>
       </c>
       <c r="H97" s="104"/>
       <c r="I97" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J97" s="104"/>
       <c r="K97" s="108"/>
@@ -5352,14 +5352,14 @@
       <c r="D98" s="110"/>
       <c r="E98" s="40"/>
       <c r="F98" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="G98" s="42" t="s">
-        <v>82</v>
       </c>
       <c r="H98" s="104"/>
       <c r="I98" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J98" s="104"/>
       <c r="K98" s="108"/>
@@ -5371,14 +5371,14 @@
       <c r="D99" s="110"/>
       <c r="E99" s="40"/>
       <c r="F99" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H99" s="104"/>
       <c r="I99" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J99" s="104"/>
       <c r="K99" s="108"/>
@@ -5390,14 +5390,14 @@
       <c r="D100" s="110"/>
       <c r="E100" s="40"/>
       <c r="F100" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="G100" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="H100" s="104"/>
       <c r="I100" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J100" s="104"/>
       <c r="K100" s="108"/>
@@ -5409,14 +5409,14 @@
       <c r="D101" s="110"/>
       <c r="E101" s="40"/>
       <c r="F101" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H101" s="104"/>
       <c r="I101" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J101" s="104"/>
       <c r="K101" s="108"/>
@@ -5428,14 +5428,14 @@
       <c r="D102" s="110"/>
       <c r="E102" s="40"/>
       <c r="F102" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="42" t="s">
         <v>59</v>
-      </c>
-      <c r="G102" s="42" t="s">
-        <v>60</v>
       </c>
       <c r="H102" s="104"/>
       <c r="I102" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J102" s="104"/>
       <c r="K102" s="108"/>
@@ -5447,14 +5447,14 @@
       <c r="D103" s="110"/>
       <c r="E103" s="40"/>
       <c r="F103" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="42" t="s">
         <v>61</v>
-      </c>
-      <c r="G103" s="42" t="s">
-        <v>62</v>
       </c>
       <c r="H103" s="104"/>
       <c r="I103" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J103" s="104"/>
       <c r="K103" s="108"/>
@@ -5466,14 +5466,14 @@
       <c r="D104" s="110"/>
       <c r="E104" s="40"/>
       <c r="F104" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="G104" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="H104" s="104"/>
       <c r="I104" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J104" s="104"/>
       <c r="K104" s="108"/>
@@ -5485,14 +5485,14 @@
       <c r="D105" s="110"/>
       <c r="E105" s="40"/>
       <c r="F105" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" s="42" t="s">
         <v>65</v>
-      </c>
-      <c r="G105" s="42" t="s">
-        <v>66</v>
       </c>
       <c r="H105" s="104"/>
       <c r="I105" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J105" s="104"/>
       <c r="K105" s="108"/>
@@ -5504,14 +5504,14 @@
       <c r="D106" s="110"/>
       <c r="E106" s="40"/>
       <c r="F106" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G106" s="42" t="s">
         <v>221</v>
-      </c>
-      <c r="G106" s="42" t="s">
-        <v>222</v>
       </c>
       <c r="H106" s="104"/>
       <c r="I106" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J106" s="104"/>
       <c r="K106" s="108"/>
@@ -5521,31 +5521,31 @@
         <v>13</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I107" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" s="40" t="s">
         <v>26</v>
-      </c>
-      <c r="J107" s="40" t="s">
-        <v>27</v>
       </c>
       <c r="K107" s="74" t="s">
         <v>0</v>
@@ -5558,14 +5558,14 @@
       <c r="D108" s="69"/>
       <c r="E108" s="40"/>
       <c r="F108" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H108" s="17"/>
       <c r="I108" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J108" s="40"/>
       <c r="K108" s="74"/>
@@ -5577,14 +5577,14 @@
       <c r="D109" s="69"/>
       <c r="E109" s="40"/>
       <c r="F109" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J109" s="40"/>
       <c r="K109" s="74"/>
@@ -5596,14 +5596,14 @@
       <c r="D110" s="69"/>
       <c r="E110" s="40"/>
       <c r="F110" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110" s="17"/>
       <c r="I110" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J110" s="40"/>
       <c r="K110" s="74"/>
@@ -5615,14 +5615,14 @@
       <c r="D111" s="69"/>
       <c r="E111" s="40"/>
       <c r="F111" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H111" s="17"/>
       <c r="I111" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J111" s="40"/>
       <c r="K111" s="74"/>
@@ -5634,14 +5634,14 @@
       <c r="D112" s="69"/>
       <c r="E112" s="40"/>
       <c r="F112" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H112" s="17"/>
       <c r="I112" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J112" s="40"/>
       <c r="K112" s="74"/>
@@ -5653,14 +5653,14 @@
       <c r="D113" s="69"/>
       <c r="E113" s="40"/>
       <c r="F113" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G113" s="42" t="s">
         <v>49</v>
-      </c>
-      <c r="G113" s="42" t="s">
-        <v>50</v>
       </c>
       <c r="H113" s="17"/>
       <c r="I113" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J113" s="40"/>
       <c r="K113" s="74"/>
@@ -5672,14 +5672,14 @@
       <c r="D114" s="69"/>
       <c r="E114" s="40"/>
       <c r="F114" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G114" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="G114" s="42" t="s">
-        <v>82</v>
       </c>
       <c r="H114" s="17"/>
       <c r="I114" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J114" s="40"/>
       <c r="K114" s="74"/>
@@ -5691,14 +5691,14 @@
       <c r="D115" s="69"/>
       <c r="E115" s="40"/>
       <c r="F115" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J115" s="40"/>
       <c r="K115" s="74"/>
@@ -5710,14 +5710,14 @@
       <c r="D116" s="69"/>
       <c r="E116" s="40"/>
       <c r="F116" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G116" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="G116" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J116" s="40"/>
       <c r="K116" s="74"/>
@@ -5729,14 +5729,14 @@
       <c r="D117" s="69"/>
       <c r="E117" s="40"/>
       <c r="F117" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J117" s="40"/>
       <c r="K117" s="74"/>
@@ -5748,14 +5748,14 @@
       <c r="D118" s="69"/>
       <c r="E118" s="40"/>
       <c r="F118" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G118" s="42" t="s">
         <v>59</v>
-      </c>
-      <c r="G118" s="42" t="s">
-        <v>60</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J118" s="40"/>
       <c r="K118" s="74"/>
@@ -5767,14 +5767,14 @@
       <c r="D119" s="69"/>
       <c r="E119" s="40"/>
       <c r="F119" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="42" t="s">
         <v>61</v>
-      </c>
-      <c r="G119" s="42" t="s">
-        <v>62</v>
       </c>
       <c r="H119" s="17"/>
       <c r="I119" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J119" s="40"/>
       <c r="K119" s="74"/>
@@ -5786,14 +5786,14 @@
       <c r="D120" s="69"/>
       <c r="E120" s="40"/>
       <c r="F120" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G120" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="G120" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J120" s="40"/>
       <c r="K120" s="74"/>
@@ -5805,14 +5805,14 @@
       <c r="D121" s="69"/>
       <c r="E121" s="40"/>
       <c r="F121" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G121" s="42" t="s">
         <v>65</v>
-      </c>
-      <c r="G121" s="42" t="s">
-        <v>66</v>
       </c>
       <c r="H121" s="17"/>
       <c r="I121" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J121" s="40"/>
       <c r="K121" s="74"/>
@@ -5824,14 +5824,14 @@
       <c r="D122" s="70"/>
       <c r="E122" s="53"/>
       <c r="F122" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="G122" s="103" t="s">
         <v>223</v>
-      </c>
-      <c r="G122" s="103" t="s">
-        <v>224</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J122" s="53"/>
       <c r="K122" s="76"/>
@@ -5952,7 +5952,7 @@
   <dimension ref="A4:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5965,111 +5965,111 @@
     <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="91"/>
       <c r="B7" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="91"/>
       <c r="B8" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="91"/>
       <c r="B9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="91"/>
       <c r="B11" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="91"/>
       <c r="B12" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="C13" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="91"/>
       <c r="B14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="C15" s="94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6087,157 +6087,157 @@
         <v>2</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="91"/>
       <c r="B19" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="91"/>
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="C48" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="91"/>
       <c r="B49" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="91"/>
       <c r="B50" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="91"/>
       <c r="B51" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="C52" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="91"/>
       <c r="B53" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="91"/>
       <c r="B54" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="C55" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="91"/>
       <c r="B56" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A57" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="C57" s="94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -6255,47 +6255,47 @@
         <v>2</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="91"/>
       <c r="B61" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="91"/>
       <c r="B62" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
